--- a/korfa_mo_2020.xlsx
+++ b/korfa_mo_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barditsanna/Desktop/korona/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FACC9007-244F-5545-BA7A-17020FA95549}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4390822D-85A3-3C4F-AD5A-9757EA80A861}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E17F732C-E9C5-7448-A76F-5BFC3BF11F18}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{E17F732C-E9C5-7448-A76F-5BFC3BF11F18}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -396,7 +396,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FEB39ED-45C4-2D4E-9B93-4DFEC386B892}">
   <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1315,9 +1317,6 @@
       <c r="A92">
         <v>90</v>
       </c>
-      <c r="B92">
-        <v>68745</v>
-      </c>
       <c r="C92">
         <v>1929</v>
       </c>

--- a/korfa_mo_2020.xlsx
+++ b/korfa_mo_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/barditsanna/Desktop/korona/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4390822D-85A3-3C4F-AD5A-9757EA80A861}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC094F9-0D5E-6747-A71A-D1F1FA344A8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{E17F732C-E9C5-7448-A76F-5BFC3BF11F18}"/>
   </bookViews>
